--- a/biology/Zoologie/Fred_Basset/Fred_Basset.xlsx
+++ b/biology/Zoologie/Fred_Basset/Fred_Basset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fred Basset est une série télévisée d'animation britannique en 20 épisodes de 5 minutes, adaptée du comic strip éponyme d'Alex Graham et diffusée à partir du 1er juin 1976 sur la BBC.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série met en scène les aventures de Fred, un basset hound à qui il ne manque que la parole, et de ses amis canins Fifi, un caniche et Jock, un terrier écossais.
 </t>
@@ -544,7 +558,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Out on a Limb
 Dogged by Misfortune
@@ -593,9 +609,11 @@
           <t>Autour de la série</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lionel Jeffries prêtait sa voix à Fred Basset en version originale. Il était notamment apparu dans Passage à tabac, Camelot et Chitty Chitty Bang Bang dans les années 1960[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lionel Jeffries prêtait sa voix à Fred Basset en version originale. Il était notamment apparu dans Passage à tabac, Camelot et Chitty Chitty Bang Bang dans les années 1960.</t>
         </is>
       </c>
     </row>
